--- a/data/education_es.xlsx
+++ b/data/education_es.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanl\Desktop\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CCB52C-C7D1-454E-9BC3-C4C5E35BD969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961E713-593B-4910-BBA5-57E530E2667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27210" yWindow="2835" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="4455" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,9 @@
     <t>PhD - Psychology</t>
   </si>
   <si>
-    <t>University of Stirling</t>
-  </si>
-  <si>
     <t>MSc in Evolutionary Psychology</t>
   </si>
   <si>
-    <t>University of Liverpool</t>
-  </si>
-  <si>
-    <t>Universidad Pedagógica Nacional</t>
-  </si>
-  <si>
     <t>Stirling, Reino Unido</t>
   </si>
   <si>
@@ -67,19 +58,28 @@
     <t>Trabajo de Grado: 4.90/5.00</t>
   </si>
   <si>
-    <t>Tesis: "Contextual musicality: vocal modulation and its perception in human social interaction"</t>
-  </si>
-  <si>
-    <t>Supervisores: Prof. S. Craig Roberts, y Prof. Anthony C. Little</t>
-  </si>
-  <si>
-    <t>Miembros del comité: Prof. Phyllis C. Lee (dissertation chair), y Prof. Stuart Semple</t>
-  </si>
-  <si>
-    <t>Supervisor: Prof. S. Craig Roberts</t>
-  </si>
-  <si>
     <t>Mejor desempeño general en la maestría</t>
+  </si>
+  <si>
+    <t>Tesis: \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
+  </si>
+  <si>
+    <t>Supervisores: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}, y \href{https://scholar.google.com/citations?user=iDDoxVsAAAAJ}{Prof. Anthony C. Little}</t>
+  </si>
+  <si>
+    <t>Miembros del comité: \href{https://scholar.google.co.uk/citations?user=wxh9svQAAAAJ}{Prof. Phyllis C. Lee} (dissertation chair), y \href{https://scholar.google.com/citations?user=Qo23OGoAAAAJ}{Prof. Stuart Semple}</t>
+  </si>
+  <si>
+    <t>\href{https://www.stir.ac.uk/}{University of Stirling}</t>
+  </si>
+  <si>
+    <t>\href{https://www.liverpool.ac.uk/}{University of Liverpool}</t>
+  </si>
+  <si>
+    <t>\href{https://www.upn.edu.co/}{Universidad Pedagógica Nacional}</t>
+  </si>
+  <si>
+    <t>Supervisor: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,99 +926,111 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2014</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+      <c r="B5" s="1">
+        <v>2009</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2009</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
         <v>2006</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/education_es.xlsx
+++ b/data/education_es.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1961E713-593B-4910-BBA5-57E530E2667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79538EDC-2ED9-4DA0-840D-85B04B1FD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="4455" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/education_es.xlsx
+++ b/data/education_es.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79538EDC-2ED9-4DA0-840D-85B04B1FD68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC9CBC-F6B2-46FE-AE85-975AF24D3C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="990" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>what</t>
   </si>
@@ -55,15 +55,9 @@
     <t>Licenciatura en Pedagogía Musical</t>
   </si>
   <si>
-    <t>Trabajo de Grado: 4.90/5.00</t>
-  </si>
-  <si>
     <t>Mejor desempeño general en la maestría</t>
   </si>
   <si>
-    <t>Tesis: \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
-  </si>
-  <si>
     <t>Supervisores: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}, y \href{https://scholar.google.com/citations?user=iDDoxVsAAAAJ}{Prof. Anthony C. Little}</t>
   </si>
   <si>
@@ -80,6 +74,15 @@
   </si>
   <si>
     <t>Supervisor: \href{https://www.scraigroberts.com/}{Prof. S. Craig Roberts}</t>
+  </si>
+  <si>
+    <t>Proyecto de investigación: \href{https://dspace.stir.ac.uk/handle/1893/21102}{\textbf{\textit{Contextual musicality: vocal modulation and its perception in human social interaction}}}</t>
+  </si>
+  <si>
+    <t>Proyecto de investigación: \textbf{\textit{Variation of pitch and loudness range of human voice in response to intra- and inter-sexual stimuli}}</t>
+  </si>
+  <si>
+    <t>Trabajo de Grado: 4.90/5.00 | \href{https://revistas.pedagogica.edu.co/index.php/revistafba/article/view/50}{\textbf{\textit{El origen no humano de la música}}}</t>
   </si>
 </sst>
 </file>
@@ -627,9 +630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -667,7 +670,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -773,7 +776,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -915,7 +918,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -923,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +938,7 @@
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,13 +966,13 @@
         <v>2014</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -978,7 +981,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -987,7 +990,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -998,7 +1001,7 @@
         <v>2009</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1007,30 +1010,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2006</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
